--- a/GradeDistributionsDB/Summer2015/Output/Summer2015 EL.xlsx
+++ b/GradeDistributionsDB/Summer2015/Output/Summer2015 EL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
   <si>
     <t>Course</t>
   </si>
@@ -290,12 +290,6 @@
   </si>
   <si>
     <t>ELIV-300</t>
-  </si>
-  <si>
-    <t>DEPARTMENT T</t>
-  </si>
-  <si>
-    <t>COLLEGE T</t>
   </si>
 </sst>
 </file>
@@ -632,7 +626,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1711,52 +1705,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
-      <c r="B91" t="s">
-        <v>92</v>
-      </c>
-      <c r="C91" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="D91" t="s">
-        <v>54</v>
-      </c>
-      <c r="E91" t="s">
-        <v>81</v>
-      </c>
-      <c r="F91" t="s">
-        <v>12</v>
-      </c>
-      <c r="G91" t="s">
-        <v>10</v>
-      </c>
-      <c r="H91" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="B92" t="s">
-        <v>93</v>
-      </c>
-      <c r="C92" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="D92" t="s">
-        <v>54</v>
-      </c>
-      <c r="E92" t="s">
-        <v>81</v>
-      </c>
-      <c r="F92" t="s">
-        <v>12</v>
-      </c>
-      <c r="G92" t="s">
-        <v>10</v>
-      </c>
-      <c r="H92" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/GradeDistributionsDB/Summer2015/Output/Summer2015 EL.xlsx
+++ b/GradeDistributionsDB/Summer2015/Output/Summer2015 EL.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
   <si>
     <t>Course</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>% of F's</t>
+  </si>
+  <si>
+    <t>% of Q Drop's</t>
   </si>
   <si>
     <t>ELIC-100</t>
@@ -327,12 +330,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -626,15 +628,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -659,1050 +661,1173 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="n">
         <v>2.111</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="n">
         <v>3.125</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" t="n">
         <v>2.938</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="B11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
       <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
         <v>15</v>
       </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="B15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" t="n">
         <v>2.333</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="B16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" t="n">
         <v>3.077</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="B17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" t="n">
         <v>2.353</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="B20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" t="n">
         <v>2.727</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="B21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" t="n">
         <v>2.889</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="B24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24" t="n">
         <v>2.75</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="B25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C25" t="n">
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="B28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C28" t="n">
         <v>3.444</v>
       </c>
       <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="B31" t="s">
         <v>14</v>
-      </c>
-      <c r="E28" t="s">
-        <v>52</v>
-      </c>
-      <c r="F28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="B31" t="s">
-        <v>13</v>
       </c>
       <c r="C31" t="n">
         <v>2.417</v>
       </c>
       <c r="D31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E31" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" t="s">
         <v>55</v>
       </c>
-      <c r="F31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" t="s">
-        <v>54</v>
-      </c>
       <c r="H31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="I31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="B34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C34" t="n">
         <v>3.333</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="B35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C35" t="n">
         <v>2.778</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H35" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="B38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C38" t="n">
         <v>3.222</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H38" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="B39" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C39" t="n">
         <v>2.778</v>
       </c>
       <c r="D39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H39" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="B40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C40" t="n">
         <v>2.778</v>
       </c>
       <c r="D40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" t="s">
         <v>15</v>
       </c>
-      <c r="E40" t="s">
-        <v>14</v>
-      </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H40" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="B43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C43" t="n">
         <v>3.167</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="B44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C44" t="n">
         <v>3.546</v>
       </c>
       <c r="D44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H44" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="B47" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C47" t="n">
         <v>0.786</v>
       </c>
       <c r="D47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F47" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H47" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="B50" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C50" t="n">
         <v>2.714</v>
       </c>
       <c r="D50" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E50" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F50" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H50" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="B51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C51" t="n">
         <v>2.2</v>
       </c>
       <c r="D51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E51" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F51" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H51" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="B54" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C54" t="n">
         <v>2.75</v>
       </c>
       <c r="D54" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H54" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="B55" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C55" t="n">
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E55" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H55" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="B58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C58" t="n">
         <v>1.9</v>
       </c>
       <c r="D58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F58" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G58" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H58" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="B61" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C61" t="n">
         <v>3.111</v>
       </c>
       <c r="D61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H61" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="B64" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C64" t="n">
         <v>3.375</v>
       </c>
       <c r="D64" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H64" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I64" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="B65" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C65" t="n">
         <v>2.667</v>
       </c>
       <c r="D65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H65" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="B68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C68" t="n">
         <v>3.167</v>
       </c>
       <c r="D68" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E68" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H68" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="B71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C71" t="n">
         <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G71" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H71" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I71" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="B74" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C74" t="n">
         <v>3</v>
       </c>
       <c r="D74" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E74" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H74" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="B77" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C77" t="n">
         <v>4</v>
       </c>
       <c r="D77" t="s">
+        <v>75</v>
+      </c>
+      <c r="E77" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77" t="s">
+        <v>13</v>
+      </c>
+      <c r="H77" t="s">
+        <v>13</v>
+      </c>
+      <c r="I77" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="B80" t="s">
         <v>74</v>
-      </c>
-      <c r="E77" t="s">
-        <v>12</v>
-      </c>
-      <c r="F77" t="s">
-        <v>12</v>
-      </c>
-      <c r="G77" t="s">
-        <v>12</v>
-      </c>
-      <c r="H77" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="B80" t="s">
-        <v>73</v>
       </c>
       <c r="C80" t="n">
         <v>2.6</v>
       </c>
       <c r="D80" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E80" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F80" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H80" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="B81" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C81" t="n">
         <v>3.444</v>
       </c>
       <c r="D81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E81" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G81" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H81" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I81" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="B84" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C84" t="n">
         <v>3</v>
       </c>
       <c r="D84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E84" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H84" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="B87" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C87" t="n">
         <v>1.5</v>
       </c>
       <c r="D87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E87" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H87" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I87" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="B90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C90" t="n">
         <v>2.75</v>
       </c>
       <c r="D90" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E90" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H90" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I90" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
